--- a/TSCA2019/well_quality_notes_per_culture_treatment_cndx.xlsx
+++ b/TSCA2019/well_quality_notes_per_culture_treatment_cndx.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="L:\Lab\NHEERL_MEA\Carpenter_Amy\pre-process_mea_acute_for_tcpl\TSCA2019\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\acarpe01\Documents\local_repos\pre-process_mea_acute_for_tcpl\TSCA2019\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6B46D4D6-85F9-4227-AA81-EA72ED3B30C0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3EBFD8A5-35B5-46C1-BCBA-A93B118BE0E0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{0AEAA7DD-E027-4486-9C16-88C70507340C}"/>
+    <workbookView xWindow="4335" yWindow="-15480" windowWidth="19440" windowHeight="14880" xr2:uid="{0AEAA7DD-E027-4486-9C16-88C70507340C}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -458,7 +458,7 @@
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="12.33203125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="84.44140625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="10.5546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:8" x14ac:dyDescent="0.3">
